--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740228.5949815359</v>
+        <v>752396.1866751184</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613247</v>
+        <v>2713959.118571167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7060868.457723609</v>
+        <v>7587094.379300998</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>294.6051902532168</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>190.7652394963196</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>79.47996908724082</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>110.0658180013547</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>197.738941714856</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>19.43015020374527</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>217.1859540484251</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1196,7 +1198,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>59.80792075326863</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>58.31517967031836</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6964489518628</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>90.81795755509441</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1576,16 +1578,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>121.2482518332239</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>15.70401580217954</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>140.0871666311209</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>30.92694568716839</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2017,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.346360596228</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2479,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E25" t="n">
-        <v>58.33552926585361</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2722,10 +2724,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.4369732840324</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>55.47301062167563</v>
+        <v>86.25014187408939</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>154.1156291734915</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>238.5680519956215</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>189.7979626808984</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>289.4556734653835</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>414.6525782897664</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>197.8485230948552</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1089.133930720603</v>
+        <v>929.588447107476</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.133930720603</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D2" t="n">
-        <v>1089.133930720603</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E2" t="n">
-        <v>1089.133930720603</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1402.051920498411</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1474.987448089748</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>2148.789099203062</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>1706.926226272757</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>1349.436811399006</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.039563889495</v>
+        <v>1349.436811399006</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.319565057242</v>
+        <v>1349.436811399006</v>
       </c>
       <c r="Y2" t="n">
-        <v>1508.982295012133</v>
+        <v>1349.436811399006</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>54.44861827178296</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>54.44861827178296</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>643.169810791496</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.5662971342737</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>153.5937340131897</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="D4" t="n">
-        <v>54.44861827178296</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="E4" t="n">
-        <v>54.44861827178296</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="F4" t="n">
-        <v>54.44861827178296</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2064.726598204046</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1821.387250429946</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.20280193025</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.491334538279</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>984.6389307107922</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>742.0750341565973</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.7322658463394</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1607.757180871042</v>
+        <v>1757.952720560778</v>
       </c>
       <c r="C5" t="n">
-        <v>1607.757180871042</v>
+        <v>1331.051990574078</v>
       </c>
       <c r="D5" t="n">
-        <v>1607.757180871042</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.780241018899</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F5" t="n">
-        <v>756.6560592082994</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>417.0520770886785</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L5" t="n">
-        <v>1090.853728201993</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M5" t="n">
-        <v>1764.655379315307</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N5" t="n">
-        <v>2438.457030428621</v>
+        <v>3054.947493481444</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>3900.092143632256</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3900.092143632256</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3900.092143632256</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U5" t="n">
-        <v>2138.783139103334</v>
+        <v>3552.084073365902</v>
       </c>
       <c r="V5" t="n">
-        <v>2027.605545162572</v>
+        <v>3194.594658492151</v>
       </c>
       <c r="W5" t="n">
-        <v>2027.605545162572</v>
+        <v>2994.85835372967</v>
       </c>
       <c r="X5" t="n">
-        <v>2027.605545162572</v>
+        <v>2583.138354897418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2027.605545162572</v>
+        <v>2177.801084852308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L6" t="n">
-        <v>1318.735195953437</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M6" t="n">
-        <v>1318.735195953437</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N6" t="n">
-        <v>1318.735195953437</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>747.4343486858997</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C7" t="n">
-        <v>575.4617855648157</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D7" t="n">
-        <v>412.1450126915864</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E7" t="n">
-        <v>245.93680684444</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F7" t="n">
-        <v>74.07503261900041</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G7" t="n">
-        <v>74.07503261900041</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H7" t="n">
-        <v>74.07503261900041</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1976.997685559084</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X7" t="n">
-        <v>937.6003173979655</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.6003173979655</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.6419690734826</v>
+        <v>1850.076668840209</v>
       </c>
       <c r="C8" t="n">
-        <v>477.7412390867827</v>
+        <v>1423.175938853509</v>
       </c>
       <c r="D8" t="n">
-        <v>54.44861827178296</v>
+        <v>999.8833180385093</v>
       </c>
       <c r="E8" t="n">
-        <v>54.44861827178296</v>
+        <v>999.8833180385093</v>
       </c>
       <c r="F8" t="n">
-        <v>54.44861827178296</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>416.3242117063453</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.853728201993</v>
+        <v>1131.832519681844</v>
       </c>
       <c r="L8" t="n">
-        <v>1090.853728201993</v>
+        <v>1131.832519681844</v>
       </c>
       <c r="M8" t="n">
-        <v>1090.853728201993</v>
+        <v>2100.747073213691</v>
       </c>
       <c r="N8" t="n">
-        <v>1257.271276480617</v>
+        <v>3069.661626745537</v>
       </c>
       <c r="O8" t="n">
-        <v>1931.072927593931</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.902374529931</v>
+        <v>2681.645031963992</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.490333365013</v>
+        <v>2269.925033131739</v>
       </c>
       <c r="Y8" t="n">
-        <v>1324.490333365013</v>
+        <v>2269.925033131739</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L9" t="n">
-        <v>326.146107551374</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M9" t="n">
-        <v>999.9477586646882</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="N9" t="n">
-        <v>1673.749409778002</v>
+        <v>997.5024781069651</v>
       </c>
       <c r="O9" t="n">
-        <v>1673.749409778002</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P9" t="n">
-        <v>1673.749409778002</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.0364208437705</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C10" t="n">
-        <v>695.0364208437705</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D10" t="n">
-        <v>695.0364208437705</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T10" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U10" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V10" t="n">
-        <v>1212.452721225452</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W10" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0364208437705</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y10" t="n">
-        <v>695.0364208437705</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672.2123997794278</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C11" t="n">
-        <v>672.2123997794278</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D11" t="n">
-        <v>672.2123997794278</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E11" t="n">
-        <v>672.2123997794278</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F11" t="n">
-        <v>672.2123997794278</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G11" t="n">
-        <v>352.3169967977481</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K11" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L11" t="n">
-        <v>701.0259602492056</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.82761136252</v>
+        <v>1392.467794055763</v>
       </c>
       <c r="N11" t="n">
-        <v>1374.82761136252</v>
+        <v>2361.382347587609</v>
       </c>
       <c r="O11" t="n">
-        <v>2048.629262475834</v>
+        <v>3206.526997738421</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T11" t="n">
-        <v>2501.505342633781</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.150433230194</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="V11" t="n">
-        <v>1885.661018356443</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="W11" t="n">
-        <v>1489.26966865679</v>
+        <v>3718.703672107778</v>
       </c>
       <c r="X11" t="n">
-        <v>1077.549669824537</v>
+        <v>3306.983673275525</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.2123997794278</v>
+        <v>2901.646403230416</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>915.0949336208331</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>1884.009487152679</v>
       </c>
       <c r="N12" t="n">
-        <v>728.2502693850971</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.334597738979</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>326.189749652591</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C13" t="n">
-        <v>154.217186531507</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D13" t="n">
-        <v>154.217186531507</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E13" t="n">
-        <v>154.217186531507</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F13" t="n">
-        <v>154.217186531507</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G13" t="n">
-        <v>154.217186531507</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.350050722363</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.010702948263</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="U13" t="n">
-        <v>1541.826254448568</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.114787056596</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W13" t="n">
-        <v>985.2623832291096</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X13" t="n">
-        <v>742.6984866749146</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.3557183646567</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>1687.231665974263</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>1260.330935987563</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>837.0383151725634</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>411.061375320421</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L14" t="n">
-        <v>701.0259602492056</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M14" t="n">
-        <v>1374.82761136252</v>
+        <v>2100.747073213691</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>3069.661626745537</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3678.018063716559</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>3320.528648842808</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>2924.137299143155</v>
       </c>
       <c r="X14" t="n">
-        <v>2580.928725072864</v>
+        <v>2512.417300310903</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2107.080030265793</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="N15" t="n">
-        <v>515.5329466256644</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O15" t="n">
-        <v>1189.334597738979</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>409.5807935972459</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1125.089101572745</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784958</v>
+        <v>1044.750611886929</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5701,22 +5703,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.555503974472</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1875.844036582501</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1600.991632755014</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X19" t="n">
-        <v>1358.427736200819</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890562</v>
+        <v>1234.916580598995</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5746,31 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5835,10 +5837,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.9441885421152</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C22" t="n">
-        <v>724.9716254210311</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.580693338092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1830.869225946121</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1556.016822118634</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1313.452925564439</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y22" t="n">
-        <v>1087.110157254181</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>496.5168264363576</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C25" t="n">
-        <v>324.5442633152736</v>
+        <v>2986.82914530688</v>
       </c>
       <c r="D25" t="n">
-        <v>161.2274904420443</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y25" t="n">
-        <v>686.6827951484232</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1715.81204584877</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
-        <v>2720.098147267829</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6412,22 +6414,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6646,22 +6648,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1587.529878172021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
         <v>1375.649804642131</v>
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.5168264363576</v>
+        <v>3941.70834795768</v>
       </c>
       <c r="C34" t="n">
-        <v>324.5442633152736</v>
+        <v>3769.735784836595</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1430.441863840363</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.589460012876</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="X34" t="n">
-        <v>913.0255634586812</v>
+        <v>4131.874316669745</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6827951484232</v>
+        <v>4131.874316669745</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1082.193820490624</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
         <v>2988.069926596602</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7123,16 +7125,16 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.376393044857</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1757.664925652886</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.664925652886</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
         <v>1601.992572952389</v>
@@ -7172,25 +7174,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7254,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>853.0186603771511</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C40" t="n">
-        <v>681.0460972560671</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D40" t="n">
-        <v>517.7293243828378</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828378</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1824.564249726657</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1544.379801226962</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.379801226962</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W40" t="n">
-        <v>1269.527397399475</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X40" t="n">
-        <v>1269.527397399475</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1043.184629089217</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>791.5529304648283</v>
+        <v>2281.509294027804</v>
       </c>
       <c r="C41" t="n">
-        <v>791.5529304648283</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D41" t="n">
-        <v>791.5529304648283</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5529304648283</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L41" t="n">
-        <v>1402.051920498411</v>
+        <v>1007.921173157204</v>
       </c>
       <c r="M41" t="n">
-        <v>2075.853571611725</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>1976.83572668905</v>
       </c>
       <c r="O41" t="n">
-        <v>2075.853571611725</v>
+        <v>2821.980376839862</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3530.25965599779</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T41" t="n">
-        <v>2501.505342633781</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.150433230194</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V41" t="n">
-        <v>1885.661018356443</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="W41" t="n">
-        <v>1489.26966865679</v>
+        <v>3518.414927196696</v>
       </c>
       <c r="X41" t="n">
-        <v>1196.890200509938</v>
+        <v>3106.694928364444</v>
       </c>
       <c r="Y41" t="n">
-        <v>791.5529304648283</v>
+        <v>2701.357658319334</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>1505.579860189173</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="N42" t="n">
-        <v>728.2502693850971</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O42" t="n">
-        <v>728.2502693850971</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P42" t="n">
-        <v>1398.990771989513</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>2817.574372007458</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>2645.601808886374</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>2482.285036013145</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>2316.076830165998</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>2144.215055940559</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>1977.958086234791</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>1834.161817742945</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>1734.393249483221</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>1791.884577707379</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>2018.412178913216</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>2373.101500207637</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>2764.287295177888</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>3141.778806053923</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>3497.206934733686</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>3787.806146655587</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>3671.466929122249</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.701408840427</v>
+        <v>3671.466929122249</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>3671.466929122249</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>3476.647005583976</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>3234.083109029782</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>3007.740340719523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>473.2896064432642</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C44" t="n">
-        <v>473.2896064432642</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D44" t="n">
-        <v>54.44861827178296</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L44" t="n">
-        <v>1764.655379315307</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M44" t="n">
-        <v>2438.457030428621</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N44" t="n">
-        <v>2604.874578707245</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U44" t="n">
-        <v>2464.07600418556</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V44" t="n">
-        <v>2106.58658931181</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W44" t="n">
-        <v>1710.195239612157</v>
+        <v>2681.645031963992</v>
       </c>
       <c r="X44" t="n">
-        <v>1298.475240779904</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="Y44" t="n">
-        <v>893.1379707347943</v>
+        <v>2481.798038938885</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L45" t="n">
-        <v>728.2502693850971</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="M45" t="n">
-        <v>728.2502693850971</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="N45" t="n">
-        <v>728.2502693850971</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.315287654275</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P45" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q45" t="n">
-        <v>1781.11693876759</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.861172536296</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V46" t="n">
-        <v>1971.786209940301</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.933806112814</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.369909558619</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.027141248361</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>111.1035129916911</v>
+        <v>452.4414523720699</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>617.8397609542557</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O5" t="n">
-        <v>324.233265578779</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8237,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>49.89541076761734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>1001.798349736415</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>104.2381281425017</v>
+        <v>147.9954856920861</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>370.8624707668171</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>205.378156449218</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>214.0468757377568</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>325.1543486553776</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>425.8621930999967</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1001.798349736415</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>24.34734030016525</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342237</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>691.4204686724437</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>418.5601437893188</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>871.4275231047103</v>
       </c>
       <c r="P15" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>339.8018586688364</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>579.1176643018625</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10430,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10902,19 +10904,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>690.6837880500523</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>424.5556048051627</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11139,13 +11141,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>699.2865004012087</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N44" t="n">
-        <v>205.3781564492183</v>
+        <v>785.2895765028801</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>406.065847569877</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>126.2677497392769</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>65.00612081323223</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>90.77286840263233</v>
       </c>
       <c r="D4" t="n">
-        <v>63.5299405605043</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -22720,7 +22722,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22835,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>243.8487027236583</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>194.6884944878006</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.34073237338151</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23030,13 +23032,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>203.6869859440686</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>347.7948780906616</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -23176,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>106.2309441183566</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>83.59922283458303</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>301.6094786475621</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.18544517283263</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>240.0673445073723</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.5156322128094</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.3258918027047</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>22.33724454826896</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E25" t="n">
-        <v>106.2105945228214</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24652,10 +24654,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.64236734312297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24886,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>106.2105945228214</v>
+        <v>75.4334632704076</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25363,19 +25365,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>86.02262841516139</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>2.337902300737483</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>232.8337600059345</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>118.1471253785467</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>4.407116317083251</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25916,7 +25918,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>209.754275749075</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>66.39245920468228</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490935.4998578393</v>
+        <v>440927.858903905</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490935.4998578393</v>
+        <v>610785.7966592552</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490935.4998578393</v>
+        <v>610785.7966592554</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490935.4998578393</v>
+        <v>610785.7966592552</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490935.4998578393</v>
+        <v>610785.7966592552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731435.5840373252</v>
+        <v>731435.5840373251</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731435.5840373251</v>
+        <v>731435.5840373252</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731435.5840373252</v>
+        <v>731435.5840373251</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490935.4998578391</v>
+        <v>610785.7966592554</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490935.4998578391</v>
+        <v>610785.7966592554</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198054.5655916927</v>
+        <v>177882.801083032</v>
       </c>
       <c r="C2" t="n">
-        <v>198054.5655916928</v>
+        <v>246399.0169046088</v>
       </c>
       <c r="D2" t="n">
-        <v>198054.5655916928</v>
+        <v>246399.016904609</v>
       </c>
       <c r="E2" t="n">
-        <v>198054.5655916928</v>
+        <v>246399.016904609</v>
       </c>
       <c r="F2" t="n">
-        <v>198054.5655916927</v>
+        <v>246399.016904609</v>
       </c>
       <c r="G2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="H2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="I2" t="n">
-        <v>295065.9616471596</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="J2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="K2" t="n">
-        <v>295065.9616471595</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471596</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="M2" t="n">
         <v>295065.9616471597</v>
@@ -26350,10 +26352,10 @@
         <v>295065.9616471597</v>
       </c>
       <c r="O2" t="n">
-        <v>198054.5655916927</v>
+        <v>246399.0169046089</v>
       </c>
       <c r="P2" t="n">
-        <v>198054.5655916927</v>
+        <v>246399.016904609</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.0704471725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29325.43720283132</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="C4" t="n">
-        <v>29325.43720283133</v>
+        <v>36512.94581553477</v>
       </c>
       <c r="D4" t="n">
-        <v>29325.43720283132</v>
+        <v>36512.94581553477</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283132</v>
+        <v>36512.94581553477</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283132</v>
+        <v>36512.94581553477</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26442,10 +26444,10 @@
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389557</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283132</v>
+        <v>36512.94581553476</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283132</v>
+        <v>36512.94581553477</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134366.7252613776</v>
+        <v>-102294.6263295647</v>
       </c>
       <c r="C6" t="n">
-        <v>93720.57850230641</v>
+        <v>-19735.47052271801</v>
       </c>
       <c r="D6" t="n">
-        <v>93720.57850230641</v>
+        <v>116753.4156802497</v>
       </c>
       <c r="E6" t="n">
-        <v>127348.1785023064</v>
+        <v>150381.0156802497</v>
       </c>
       <c r="F6" t="n">
-        <v>127348.1785023064</v>
+        <v>150381.0156802497</v>
       </c>
       <c r="G6" t="n">
-        <v>9616.378194648409</v>
+        <v>91319.42855766203</v>
       </c>
       <c r="H6" t="n">
         <v>173567.4990048344</v>
       </c>
       <c r="I6" t="n">
-        <v>173567.4990048343</v>
+        <v>173567.4990048344</v>
       </c>
       <c r="J6" t="n">
-        <v>-4509.42948394538</v>
+        <v>28033.82907001791</v>
       </c>
       <c r="K6" t="n">
-        <v>173567.4990048343</v>
+        <v>64836.27334270377</v>
       </c>
       <c r="L6" t="n">
-        <v>173567.4990048343</v>
+        <v>173567.4990048344</v>
       </c>
       <c r="M6" t="n">
         <v>173567.4990048344</v>
@@ -26558,10 +26560,10 @@
         <v>173567.4990048344</v>
       </c>
       <c r="O6" t="n">
-        <v>127348.1785023064</v>
+        <v>150381.0156802497</v>
       </c>
       <c r="P6" t="n">
-        <v>127348.1785023063</v>
+        <v>150381.0156802498</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487695</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>73.67225009225932</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>594.6678712320335</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O5" t="n">
-        <v>286.8423062227549</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.86276087282086</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>81.06623842027952</v>
+        <v>124.8235959698639</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>341.4425112812306</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N8" t="n">
-        <v>168.098533614772</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.2998374487783</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>286.8423062227546</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>388.4309302005649</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.004312086623582</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>653.1084262398208</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>381.128880889887</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>848.2556333824881</v>
       </c>
       <c r="P15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>310.3818991832499</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>540.8056218692396</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>653.1084262398209</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>388.4309302005647</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N44" t="n">
-        <v>168.0985336147722</v>
+        <v>748.009953668434</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>382.8939578476548</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752396.1866751184</v>
+        <v>750385.4736474771</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2713959.118571167</v>
+        <v>2713959.118571169</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7587094.379300998</v>
+        <v>7587094.379300997</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71.94762989914915</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>190.7652394963196</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>79.47996908724082</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>304.3847560130747</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>197.738941714856</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>217.1859540484251</v>
+        <v>374.1304517345753</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>259.5993285084648</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>194.1415787406854</v>
       </c>
       <c r="W11" t="n">
-        <v>90.81795755509441</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1618,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>15.70401580217954</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>96.60383727873445</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>30.92694568716839</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2241,16 +2241,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>86.25014187408939</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>189.7979626808984</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>62.05593473477047</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>192.8717243028899</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>96.60383727873445</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>197.8485230948552</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>929.588447107476</v>
+        <v>1393.342889338594</v>
       </c>
       <c r="C2" t="n">
-        <v>502.687717120776</v>
+        <v>966.4421593518939</v>
       </c>
       <c r="D2" t="n">
-        <v>79.39509630577632</v>
+        <v>543.1495385368942</v>
       </c>
       <c r="E2" t="n">
-        <v>79.39509630577632</v>
+        <v>117.1725986847517</v>
       </c>
       <c r="F2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.926226272757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1349.436811399006</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.436811399006</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.436811399006</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.436811399006</v>
+        <v>1813.191253630124</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751886</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>1302.520320645319</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989122</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.952720560778</v>
+        <v>2481.798038938885</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.051990574078</v>
+        <v>2054.897308952186</v>
       </c>
       <c r="D5" t="n">
-        <v>907.7593697590781</v>
+        <v>1631.604688137186</v>
       </c>
       <c r="E5" t="n">
-        <v>907.7593697590781</v>
+        <v>1205.627748285043</v>
       </c>
       <c r="F5" t="n">
-        <v>482.6351879484783</v>
+        <v>780.5035664744435</v>
       </c>
       <c r="G5" t="n">
-        <v>78.29612553792698</v>
+        <v>376.1645040638921</v>
       </c>
       <c r="H5" t="n">
         <v>78.29612553792698</v>
@@ -4570,25 +4570,25 @@
         <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>1156.407892330322</v>
+        <v>1047.35212221338</v>
       </c>
       <c r="L5" t="n">
-        <v>2086.032939949598</v>
+        <v>1976.977169832656</v>
       </c>
       <c r="M5" t="n">
-        <v>2086.032939949598</v>
+        <v>2945.891723364502</v>
       </c>
       <c r="N5" t="n">
-        <v>3054.947493481444</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="O5" t="n">
-        <v>3900.092143632256</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P5" t="n">
-        <v>3900.092143632256</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q5" t="n">
-        <v>3900.092143632256</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R5" t="n">
         <v>3914.806276896349</v>
@@ -4606,13 +4606,13 @@
         <v>3194.594658492151</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.85835372967</v>
+        <v>3194.594658492151</v>
       </c>
       <c r="X5" t="n">
-        <v>2583.138354897418</v>
+        <v>3194.594658492151</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.801084852308</v>
+        <v>2789.257388447042</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>78.29612553792698</v>
       </c>
       <c r="J6" t="n">
-        <v>78.29612553792698</v>
+        <v>349.9936148175181</v>
       </c>
       <c r="K6" t="n">
-        <v>78.29612553792698</v>
+        <v>940.4785413858576</v>
       </c>
       <c r="L6" t="n">
-        <v>78.29612553792698</v>
+        <v>1777.277349468764</v>
       </c>
       <c r="M6" t="n">
-        <v>1047.210679069774</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="N6" t="n">
-        <v>1047.210679069774</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O6" t="n">
-        <v>1170.786039079939</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P6" t="n">
         <v>1886.983756118437</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1161.477248062164</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C7" t="n">
-        <v>989.5046849410799</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D7" t="n">
-        <v>826.1879120678506</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E7" t="n">
-        <v>659.9797062207041</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F7" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G7" t="n">
-        <v>321.8609622894966</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H7" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I7" t="n">
         <v>78.29612553792698</v>
@@ -4752,25 +4752,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S7" t="n">
-        <v>2258.709152951055</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T7" t="n">
-        <v>2258.709152951055</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U7" t="n">
-        <v>2258.709152951055</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V7" t="n">
-        <v>1976.997685559084</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W7" t="n">
-        <v>1820.549881638682</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X7" t="n">
-        <v>1577.985985084488</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y7" t="n">
-        <v>1351.64321677423</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1850.076668840209</v>
+        <v>1340.37210466824</v>
       </c>
       <c r="C8" t="n">
-        <v>1423.175938853509</v>
+        <v>1340.37210466824</v>
       </c>
       <c r="D8" t="n">
-        <v>999.8833180385093</v>
+        <v>917.0794838532399</v>
       </c>
       <c r="E8" t="n">
-        <v>999.8833180385093</v>
+        <v>491.1025440010975</v>
       </c>
       <c r="F8" t="n">
-        <v>780.5035664744435</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="G8" t="n">
-        <v>376.1645040638921</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H8" t="n">
-        <v>78.29612553792698</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I8" t="n">
         <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>416.3242117063453</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K8" t="n">
-        <v>1131.832519681844</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L8" t="n">
-        <v>1131.832519681844</v>
+        <v>818.8259796696768</v>
       </c>
       <c r="M8" t="n">
-        <v>2100.747073213691</v>
+        <v>818.8259796696768</v>
       </c>
       <c r="N8" t="n">
-        <v>3069.661626745537</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O8" t="n">
-        <v>3914.806276896349</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P8" t="n">
-        <v>3914.806276896349</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q8" t="n">
-        <v>3914.806276896349</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R8" t="n">
         <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>3914.806276896349</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T8" t="n">
-        <v>3693.880705940982</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U8" t="n">
-        <v>3435.525796537395</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V8" t="n">
-        <v>3078.036381663645</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W8" t="n">
-        <v>2681.645031963992</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X8" t="n">
-        <v>2269.925033131739</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y8" t="n">
-        <v>2269.925033131739</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="9">
@@ -4886,16 +4886,16 @@
         <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>78.29612553792698</v>
+        <v>81.2703945036842</v>
       </c>
       <c r="L9" t="n">
-        <v>78.29612553792698</v>
+        <v>918.0692025865903</v>
       </c>
       <c r="M9" t="n">
-        <v>997.5024781069651</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="N9" t="n">
-        <v>997.5024781069651</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O9" t="n">
         <v>1886.983756118437</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1161.477248062164</v>
+        <v>588.3874325902184</v>
       </c>
       <c r="C10" t="n">
-        <v>989.5046849410799</v>
+        <v>416.4148694691344</v>
       </c>
       <c r="D10" t="n">
-        <v>826.1879120678506</v>
+        <v>416.4148694691344</v>
       </c>
       <c r="E10" t="n">
-        <v>659.9797062207041</v>
+        <v>416.4148694691344</v>
       </c>
       <c r="F10" t="n">
-        <v>488.1179319952645</v>
+        <v>244.5530952436948</v>
       </c>
       <c r="G10" t="n">
-        <v>321.8609622894966</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H10" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I10" t="n">
         <v>78.29612553792698</v>
@@ -4989,25 +4989,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>2258.709152951055</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T10" t="n">
-        <v>2258.709152951055</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U10" t="n">
-        <v>2258.709152951055</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V10" t="n">
-        <v>2095.402285466169</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W10" t="n">
-        <v>1820.549881638682</v>
+        <v>1021.117297856479</v>
       </c>
       <c r="X10" t="n">
-        <v>1577.985985084488</v>
+        <v>778.5534013022841</v>
       </c>
       <c r="Y10" t="n">
-        <v>1351.64321677423</v>
+        <v>778.5534013022841</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>78.29612553792698</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K11" t="n">
-        <v>78.29612553792698</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.921173157204</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="M11" t="n">
-        <v>1392.467794055763</v>
+        <v>1409.814137886669</v>
       </c>
       <c r="N11" t="n">
-        <v>2361.382347587609</v>
+        <v>2378.728691418515</v>
       </c>
       <c r="O11" t="n">
-        <v>3206.526997738421</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P11" t="n">
-        <v>3914.806276896349</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q11" t="n">
         <v>3914.806276896349</v>
@@ -5068,16 +5068,16 @@
         <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T11" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U11" t="n">
-        <v>3810.438982769489</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V11" t="n">
-        <v>3810.438982769489</v>
+        <v>3718.703672107778</v>
       </c>
       <c r="W11" t="n">
         <v>3718.703672107778</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1161.477248062164</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C13" t="n">
-        <v>989.5046849410799</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D13" t="n">
-        <v>826.1879120678506</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E13" t="n">
-        <v>659.9797062207041</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F13" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G13" t="n">
-        <v>321.8609622894966</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H13" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I13" t="n">
         <v>78.29612553792698</v>
@@ -5223,28 +5223,28 @@
         <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2211.670539638229</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S13" t="n">
-        <v>2211.670539638229</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T13" t="n">
-        <v>2211.670539638229</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U13" t="n">
-        <v>2211.670539638229</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V13" t="n">
-        <v>2095.402285466169</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W13" t="n">
-        <v>1820.549881638682</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X13" t="n">
-        <v>1577.985985084488</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y13" t="n">
-        <v>1351.64321677423</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1687.231665974263</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C14" t="n">
-        <v>1260.330935987563</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D14" t="n">
-        <v>837.0383151725634</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E14" t="n">
-        <v>411.061375320421</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F14" t="n">
-        <v>411.061375320421</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G14" t="n">
-        <v>411.061375320421</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1929967944558</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I14" t="n">
         <v>78.29612553792698</v>
@@ -5281,22 +5281,22 @@
         <v>78.29612553792698</v>
       </c>
       <c r="K14" t="n">
-        <v>793.804433513426</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L14" t="n">
-        <v>1723.429481132703</v>
+        <v>675.7470401776609</v>
       </c>
       <c r="M14" t="n">
-        <v>2100.747073213691</v>
+        <v>1644.661593709507</v>
       </c>
       <c r="N14" t="n">
-        <v>3069.661626745537</v>
+        <v>2613.576147241354</v>
       </c>
       <c r="O14" t="n">
-        <v>3914.806276896349</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="P14" t="n">
-        <v>3914.806276896349</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q14" t="n">
         <v>3914.806276896349</v>
@@ -5308,22 +5308,22 @@
         <v>3914.806276896349</v>
       </c>
       <c r="T14" t="n">
-        <v>3693.880705940982</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U14" t="n">
-        <v>3678.018063716559</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V14" t="n">
-        <v>3320.528648842808</v>
+        <v>3817.226643281466</v>
       </c>
       <c r="W14" t="n">
-        <v>2924.137299143155</v>
+        <v>3420.835293581812</v>
       </c>
       <c r="X14" t="n">
-        <v>2512.417300310903</v>
+        <v>3009.11529474956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.080030265793</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29612553792698</v>
+        <v>85.74276849983882</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29612553792698</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="K15" t="n">
-        <v>78.29612553792698</v>
+        <v>947.9251843477695</v>
       </c>
       <c r="L15" t="n">
-        <v>78.29612553792698</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="M15" t="n">
-        <v>78.29612553792698</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="N15" t="n">
-        <v>1047.210679069774</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="O15" t="n">
-        <v>1886.983756118437</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P15" t="n">
-        <v>1886.983756118437</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q15" t="n">
         <v>1886.983756118437</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1161.477248062164</v>
+        <v>349.4138044004177</v>
       </c>
       <c r="C16" t="n">
-        <v>989.5046849410799</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="D16" t="n">
-        <v>826.1879120678506</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="E16" t="n">
-        <v>659.9797062207041</v>
+        <v>177.4412412793338</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1179319952645</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G16" t="n">
-        <v>321.8609622894966</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H16" t="n">
-        <v>178.064693797651</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I16" t="n">
         <v>78.29612553792698</v>
@@ -5463,25 +5463,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2258.709152951055</v>
+        <v>2088.57410547019</v>
       </c>
       <c r="T16" t="n">
-        <v>2258.709152951055</v>
+        <v>1845.23475769609</v>
       </c>
       <c r="U16" t="n">
-        <v>2258.709152951055</v>
+        <v>1565.050309196394</v>
       </c>
       <c r="V16" t="n">
-        <v>2095.402285466169</v>
+        <v>1283.338841804423</v>
       </c>
       <c r="W16" t="n">
-        <v>1820.549881638682</v>
+        <v>1008.486437976936</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.985985084488</v>
+        <v>765.9225414227413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1351.64321677423</v>
+        <v>539.5797731124834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>4143.246847793825</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>4143.246847793825</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1044.750611886929</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1477.48047715319</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.916580598995</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.916580598995</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>431.8276921262043</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>848.3364291485279</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>621.99366083827</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,28 +6065,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3158.801708427964</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>2986.82914530688</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.310445450287</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3348.967677140029</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6308,19 +6308,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O33" t="n">
-        <v>692.7876399741681</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3941.70834795768</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3769.735784836595</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4374.43821322394</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4131.874316669745</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4131.874316669745</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7256,22 +7256,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2281.509294027804</v>
+        <v>2218.826531669449</v>
       </c>
       <c r="C41" t="n">
-        <v>2089.794180208714</v>
+        <v>1791.925801682749</v>
       </c>
       <c r="D41" t="n">
-        <v>1666.501559393715</v>
+        <v>1368.633180867749</v>
       </c>
       <c r="E41" t="n">
-        <v>1240.524619541572</v>
+        <v>942.656241015607</v>
       </c>
       <c r="F41" t="n">
-        <v>815.4004377309723</v>
+        <v>517.5320592050072</v>
       </c>
       <c r="G41" t="n">
-        <v>411.061375320421</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H41" t="n">
         <v>113.1929967944558</v>
@@ -7411,25 +7411,25 @@
         <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>78.29612553792698</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K41" t="n">
-        <v>78.29612553792698</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.921173157204</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M41" t="n">
-        <v>1976.83572668905</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="N41" t="n">
-        <v>1976.83572668905</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="O41" t="n">
-        <v>2821.980376839862</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P41" t="n">
-        <v>3530.25965599779</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q41" t="n">
         <v>3914.806276896349</v>
@@ -7447,16 +7447,16 @@
         <v>3914.806276896349</v>
       </c>
       <c r="V41" t="n">
-        <v>3914.806276896349</v>
+        <v>3852.123514537995</v>
       </c>
       <c r="W41" t="n">
-        <v>3518.414927196696</v>
+        <v>3455.732164838342</v>
       </c>
       <c r="X41" t="n">
-        <v>3106.694928364444</v>
+        <v>3044.012166006089</v>
       </c>
       <c r="Y41" t="n">
-        <v>2701.357658319334</v>
+        <v>2638.674895960979</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>78.29612553792698</v>
       </c>
       <c r="K42" t="n">
-        <v>668.7810521062665</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L42" t="n">
-        <v>1505.579860189173</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M42" t="n">
-        <v>1886.983756118437</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.983756118437</v>
+        <v>281.3047610684671</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.983756118437</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P42" t="n">
         <v>1886.983756118437</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2817.574372007458</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C43" t="n">
-        <v>2645.601808886374</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D43" t="n">
-        <v>2482.285036013145</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E43" t="n">
-        <v>2316.076830165998</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F43" t="n">
-        <v>2144.215055940559</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G43" t="n">
-        <v>1977.958086234791</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H43" t="n">
-        <v>1834.161817742945</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I43" t="n">
-        <v>1734.393249483221</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J43" t="n">
-        <v>1791.884577707379</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>2018.412178913216</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>2373.101500207637</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>2764.287295177888</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>3141.778806053923</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>3497.206934733686</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>3787.806146655587</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>3914.806276896349</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>3914.806276896349</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S43" t="n">
-        <v>3914.806276896349</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T43" t="n">
-        <v>3671.466929122249</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U43" t="n">
-        <v>3671.466929122249</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V43" t="n">
-        <v>3671.466929122249</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W43" t="n">
-        <v>3476.647005583976</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X43" t="n">
-        <v>3234.083109029782</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y43" t="n">
-        <v>3007.740340719523</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2481.798038938885</v>
+        <v>2183.92966041292</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.897308952186</v>
+        <v>1757.02893042622</v>
       </c>
       <c r="D44" t="n">
-        <v>1631.604688137186</v>
+        <v>1333.736309611221</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.627748285043</v>
+        <v>907.7593697590781</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5035664744435</v>
+        <v>482.6351879484783</v>
       </c>
       <c r="G44" t="n">
-        <v>376.1645040638921</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H44" t="n">
         <v>78.29612553792698</v>
@@ -7648,28 +7648,28 @@
         <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>78.29612553792698</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>78.29612553792698</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>78.29612553792698</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M44" t="n">
-        <v>1047.210679069774</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="N44" t="n">
-        <v>1787.740533201523</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="O44" t="n">
-        <v>2632.885183352335</v>
+        <v>2931.17759010041</v>
       </c>
       <c r="P44" t="n">
-        <v>3341.164462510263</v>
+        <v>3639.456869258338</v>
       </c>
       <c r="Q44" t="n">
-        <v>3797.249942014446</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R44" t="n">
         <v>3914.806276896349</v>
@@ -7678,22 +7678,22 @@
         <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>3693.880705940982</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U44" t="n">
-        <v>3435.525796537395</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.036381663645</v>
+        <v>3817.226643281466</v>
       </c>
       <c r="W44" t="n">
-        <v>2681.645031963992</v>
+        <v>3420.835293581812</v>
       </c>
       <c r="X44" t="n">
-        <v>2481.798038938885</v>
+        <v>3009.11529474956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2481.798038938885</v>
+        <v>2603.77802470445</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>357.4402577794299</v>
       </c>
       <c r="K45" t="n">
-        <v>947.9251843477695</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="L45" t="n">
-        <v>947.9251843477695</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="M45" t="n">
-        <v>947.9251843477695</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="N45" t="n">
-        <v>947.9251843477695</v>
+        <v>357.4402577794299</v>
       </c>
       <c r="O45" t="n">
-        <v>1170.786039079939</v>
+        <v>624.6212521324562</v>
       </c>
       <c r="P45" t="n">
-        <v>1886.983756118437</v>
+        <v>1340.818969170954</v>
       </c>
       <c r="Q45" t="n">
-        <v>1886.983756118437</v>
+        <v>1804.964446033734</v>
       </c>
       <c r="R45" t="n">
         <v>1886.983756118437</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.4138044004177</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C46" t="n">
-        <v>177.4412412793338</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D46" t="n">
-        <v>177.4412412793338</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E46" t="n">
-        <v>78.29612553792698</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F46" t="n">
         <v>78.29612553792698</v>
@@ -7833,25 +7833,25 @@
         <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2088.57410547019</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.23475769609</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U46" t="n">
-        <v>1565.050309196394</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V46" t="n">
-        <v>1283.338841804423</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W46" t="n">
-        <v>1008.486437976936</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X46" t="n">
-        <v>765.9225414227413</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y46" t="n">
-        <v>539.5797731124834</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>452.4414523720699</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>455.0528931487048</v>
+        <v>90.41920043198729</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>577.5708413291358</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>758.5002654165255</v>
+        <v>648.3429218640588</v>
       </c>
       <c r="L5" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N5" t="n">
         <v>1015.981192058533</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>49.89541076761734</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M6" t="n">
-        <v>1001.798349736415</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>147.9954856920861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>370.8624707668171</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>786.321996101057</v>
       </c>
       <c r="M8" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>1015.981192058533</v>
@@ -8470,13 +8470,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>25.40354591995679</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
-        <v>951.5880457335786</v>
+        <v>1001.798349736415</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>425.8621930999967</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N11" t="n">
         <v>1015.981192058533</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>412.8584611900878</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8929,13 +8929,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>641.7978147959905</v>
       </c>
       <c r="M14" t="n">
-        <v>418.5601437893188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N14" t="n">
         <v>1015.981192058533</v>
@@ -8947,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.044597437629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>871.4275231047103</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9485,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>52.06309604079524</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,10 +9877,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>809.3863451554519</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9895,10 +9895,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10360,10 +10360,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10442,10 +10442,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P33" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>443.1202251383856</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10606,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1016.132832123519</v>
+        <v>708.5510389445227</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>424.5556048051627</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11141,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>785.2895765028801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>314.2553893904679</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>248.2838641991609</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22555,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>348.9253100933446</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22567,7 +22567,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>65.00612081323223</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22707,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>90.77286840263233</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -22716,13 +22716,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.26512463554</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>194.6884944878006</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>203.6869859440686</v>
+        <v>46.74248825791847</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,10 +23184,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,25 +23229,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>12.50455128074731</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -23317,10 +23317,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>159.7729419843276</v>
       </c>
       <c r="W11" t="n">
-        <v>301.6094786475621</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>240.0673445073723</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>257.3106834462786</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.3258918027047</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>75.4334632704076</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>232.8337600059345</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>291.8585859902425</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25918,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>257.3106834462786</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>209.754275749075</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>66.39245920468228</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440927.858903905</v>
+        <v>440927.8589039051</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610785.7966592554</v>
+        <v>610785.7966592551</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731435.5840373252</v>
+        <v>731435.5840373251</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731435.5840373252</v>
+        <v>731435.5840373251</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731435.5840373252</v>
+        <v>731435.5840373251</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610785.7966592554</v>
+        <v>610785.7966592552</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610785.7966592554</v>
+        <v>610785.7966592552</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>177882.801083032</v>
       </c>
       <c r="C2" t="n">
-        <v>246399.0169046088</v>
+        <v>246399.0169046089</v>
       </c>
       <c r="D2" t="n">
         <v>246399.016904609</v>
@@ -26325,10 +26325,10 @@
         <v>246399.016904609</v>
       </c>
       <c r="F2" t="n">
-        <v>246399.016904609</v>
+        <v>246399.0169046089</v>
       </c>
       <c r="G2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
         <v>295065.9616471597</v>
@@ -26343,7 +26343,7 @@
         <v>295065.9616471597</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="M2" t="n">
         <v>295065.9616471597</v>
@@ -26355,7 +26355,7 @@
         <v>246399.0169046089</v>
       </c>
       <c r="P2" t="n">
-        <v>246399.016904609</v>
+        <v>246399.0169046089</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>26326.44296043127</v>
       </c>
       <c r="C4" t="n">
-        <v>36512.94581553477</v>
+        <v>36512.94581553478</v>
       </c>
       <c r="D4" t="n">
         <v>36512.94581553477</v>
@@ -26435,7 +26435,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26444,7 +26444,7 @@
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389557</v>
@@ -26453,10 +26453,10 @@
         <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>36512.94581553476</v>
+        <v>36512.94581553477</v>
       </c>
       <c r="P4" t="n">
         <v>36512.94581553477</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102294.6263295647</v>
+        <v>-102903.6720420544</v>
       </c>
       <c r="C6" t="n">
-        <v>-19735.47052271801</v>
+        <v>-20018.24854081919</v>
       </c>
       <c r="D6" t="n">
-        <v>116753.4156802497</v>
+        <v>116470.6376621486</v>
       </c>
       <c r="E6" t="n">
-        <v>150381.0156802497</v>
+        <v>150098.2376621485</v>
       </c>
       <c r="F6" t="n">
-        <v>150381.0156802497</v>
+        <v>150098.2376621484</v>
       </c>
       <c r="G6" t="n">
-        <v>91319.42855766203</v>
+        <v>91268.39789547767</v>
       </c>
       <c r="H6" t="n">
-        <v>173567.4990048344</v>
+        <v>173516.4683426501</v>
       </c>
       <c r="I6" t="n">
-        <v>173567.4990048344</v>
+        <v>173516.4683426501</v>
       </c>
       <c r="J6" t="n">
-        <v>28033.82907001791</v>
+        <v>27982.79840783366</v>
       </c>
       <c r="K6" t="n">
-        <v>64836.27334270377</v>
+        <v>64785.24268051948</v>
       </c>
       <c r="L6" t="n">
-        <v>173567.4990048344</v>
+        <v>173516.4683426502</v>
       </c>
       <c r="M6" t="n">
-        <v>173567.4990048344</v>
+        <v>173516.4683426502</v>
       </c>
       <c r="N6" t="n">
-        <v>173567.4990048344</v>
+        <v>173516.4683426502</v>
       </c>
       <c r="O6" t="n">
-        <v>150381.0156802497</v>
+        <v>150098.2376621484</v>
       </c>
       <c r="P6" t="n">
-        <v>150381.0156802498</v>
+        <v>150098.2376621485</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>415.0101894726381</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>67.90411371775774</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L3" t="n">
-        <v>432.5378064344753</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>556.2278131155941</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>722.7356646217162</v>
+        <v>612.5783210692495</v>
       </c>
       <c r="L5" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N5" t="n">
         <v>978.7015692240873</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.86276087282086</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M6" t="n">
-        <v>978.7015692240873</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>124.8235959698639</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>341.4425112812306</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>748.0099536684342</v>
       </c>
       <c r="M8" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>978.7015692240873</v>
@@ -35190,13 +35190,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.004312086623453</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
-        <v>928.4912652212506</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>388.4309302005649</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N11" t="n">
         <v>978.7015692240873</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>375.4675018340637</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>603.4857723633676</v>
       </c>
       <c r="M14" t="n">
-        <v>381.128880889887</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N14" t="n">
         <v>978.7015692240873</v>
@@ -35667,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>848.2556333824881</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36205,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>771.074302722829</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36615,10 +36615,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37080,10 +37080,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P33" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>404.8081827057627</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37326,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>978.7015692240873</v>
+        <v>671.1197760450909</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>388.4309302005647</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>748.009953668434</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>278.1307147858698</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>225.1119744769387</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
